--- a/src/TestData/VerifyRegistrationPage.xlsx
+++ b/src/TestData/VerifyRegistrationPage.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/TestData/VerifyRegistrationPage.xlsx
+++ b/src/TestData/VerifyRegistrationPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Fields</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Pravallika</t>
   </si>
   <si>
-    <t>pravigandhi@gmail.com</t>
-  </si>
-  <si>
     <t>Pravi$123</t>
   </si>
   <si>
@@ -62,6 +59,63 @@
   </si>
   <si>
     <t>pravigandhitest@gmail.com</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>Email1</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>Email3</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test@</t>
+  </si>
+  <si>
+    <t>test#hgf@</t>
+  </si>
+  <si>
+    <t>Email4</t>
+  </si>
+  <si>
+    <t>test@abc.</t>
+  </si>
+  <si>
+    <t>Email5</t>
+  </si>
+  <si>
+    <t>@test</t>
+  </si>
+  <si>
+    <t>Phone1</t>
+  </si>
+  <si>
+    <t>wded</t>
+  </si>
+  <si>
+    <t>Phone2</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Phone3</t>
   </si>
 </sst>
 </file>
@@ -382,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -413,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -421,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -451,10 +505,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,48 +527,94 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>